--- a/plantilla.xlsx
+++ b/plantilla.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ProyectoWeb_PHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5920E3A-8E28-4BA2-BA2E-8516194B8800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1A67ED-023E-4F81-9AAD-9280D739AFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" tabRatio="380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="4680" windowWidth="28800" windowHeight="15345" tabRatio="380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla" sheetId="2" r:id="rId1"/>
@@ -1136,7 +1136,7 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+      <selection activeCell="A10" sqref="A10:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="J2" s="62">
         <f ca="1">TODAY()</f>
-        <v>45528</v>
+        <v>45530</v>
       </c>
       <c r="K2" s="63"/>
       <c r="L2" s="64"/>
@@ -1337,9 +1337,6 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
-        <v>1</v>
-      </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
@@ -1356,9 +1353,6 @@
       <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
-        <v>2</v>
-      </c>
       <c r="B11" s="1">
         <v>2</v>
       </c>
@@ -1375,9 +1369,6 @@
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
-        <v>3</v>
-      </c>
       <c r="B12" s="1">
         <v>3</v>
       </c>
@@ -1394,9 +1385,6 @@
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="26">
-        <v>4</v>
-      </c>
       <c r="B13" s="1">
         <v>4</v>
       </c>
@@ -1413,9 +1401,6 @@
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
-        <v>5</v>
-      </c>
       <c r="B14" s="1">
         <v>5</v>
       </c>
@@ -1432,9 +1417,6 @@
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="26">
-        <v>6</v>
-      </c>
       <c r="B15" s="1">
         <v>6</v>
       </c>
@@ -1451,9 +1433,6 @@
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="26">
-        <v>7</v>
-      </c>
       <c r="B16" s="1">
         <v>7</v>
       </c>
@@ -1469,10 +1448,7 @@
       <c r="L16" s="15"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="26">
-        <v>8</v>
-      </c>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>8</v>
       </c>
@@ -1488,10 +1464,7 @@
       <c r="L17" s="15"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="26">
-        <v>9</v>
-      </c>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>9</v>
       </c>
@@ -1507,10 +1480,7 @@
       <c r="L18" s="15"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="26">
-        <v>10</v>
-      </c>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>10</v>
       </c>
@@ -1526,10 +1496,7 @@
       <c r="L19" s="15"/>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="26">
-        <v>11</v>
-      </c>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>11</v>
       </c>
@@ -1545,10 +1512,7 @@
       <c r="L20" s="15"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="26">
-        <v>12</v>
-      </c>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>12</v>
       </c>
@@ -1564,10 +1528,7 @@
       <c r="L21" s="15"/>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="26">
-        <v>13</v>
-      </c>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>13</v>
       </c>
@@ -1583,7 +1544,7 @@
       <c r="L22" s="15"/>
       <c r="M22" s="4"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>14</v>
       </c>
@@ -1599,7 +1560,7 @@
       <c r="L23" s="15"/>
       <c r="M23" s="4"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>15</v>
       </c>
@@ -1615,7 +1576,7 @@
       <c r="L24" s="15"/>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>16</v>
       </c>
@@ -1631,7 +1592,7 @@
       <c r="L25" s="15"/>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>17</v>
       </c>
@@ -1647,7 +1608,7 @@
       <c r="L26" s="15"/>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>18</v>
       </c>
@@ -1663,7 +1624,7 @@
       <c r="L27" s="15"/>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>19</v>
       </c>
@@ -1679,7 +1640,7 @@
       <c r="L28" s="15"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>20</v>
       </c>
@@ -1695,7 +1656,7 @@
       <c r="L29" s="15"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>21</v>
       </c>
@@ -1711,7 +1672,7 @@
       <c r="L30" s="15"/>
       <c r="M30" s="4"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>22</v>
       </c>
@@ -1727,7 +1688,7 @@
       <c r="L31" s="15"/>
       <c r="M31" s="4"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>23</v>
       </c>
